--- a/entrenadores_totalizados.xlsx
+++ b/entrenadores_totalizados.xlsx
@@ -360,17 +360,17 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Año</t>
+          <t>MYEAR</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Selección</t>
+          <t>Seleccion</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nombre del Entrenador</t>
+          <t>COACH</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Alemania Federal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rumanía</t>
+          <t>Rumania</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Alemania Federal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rumanía</t>
+          <t>Rumania</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Alemania Federal</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Alemania Federal</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Alemania Federal</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">

--- a/entrenadores_totalizados.xlsx
+++ b/entrenadores_totalizados.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3614,6 +3614,3156 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218">
+        <v>1990</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Carlos Bilardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>1990</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Josef Hickersberger</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>1990</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Guy Thys</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>1990</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Sebastião Lazaroni</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>1990</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Valeri Nepomnyashchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>1990</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Francisco Maturana</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>1990</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Bora Milutinović</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>1990</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Egipto</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Mahmoud El Gohary</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>1990</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Bobby Robson</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>1990</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Luis Suárez</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>1990</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Franz Beckenbauer</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>1990</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Irlanda</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Jack Charlton</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>1990</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Azeglio Vicini</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>1990</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>LEE Hoe Taik</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>1990</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Leo Beenhakker</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>1990</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Rumania</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Emerich Jenei</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>1990</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ROXBURGH Andy</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>1990</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Olle Nordin</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>1990</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Checoslovaquia</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Jozef Vengloš</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>1990</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Emiratos Árabes</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>PARREIRA Carlos Alberto</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>1990</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Unión Soviética</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>LOBANOVSKYI Valeriy</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>1990</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Óscar Tabárez</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>1990</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Bob Gansler</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>1990</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Ivica Osim</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>1994</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Alfio Basile</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>1994</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Paul Van Himst</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>1994</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Xabier Azkargorta Uriarte</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>1994</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Carlos Alberto Parreira</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>1994</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Dimitar Penev</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>1994</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Henri Michel</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>1994</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Francisco Maturana</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>1994</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Javier Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>1994</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Berti Vogts</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>1994</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Alkis Panagoulias</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>1994</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Irlanda</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Jack Charlton</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>1994</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Arrigo Sacchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>1994</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>KIM Ho Kon</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>1994</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Arabia Saudita</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Jorge Solari</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>1994</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Marruecos</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Abdellah Blinda</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>1994</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Miguel Mejía Barón</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>1994</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Dick Advocaat</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>1994</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Clemens Westerhof</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>1994</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Noruega</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Egil Olsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>1994</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Rumania</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Anghel Iordănescu</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>1994</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Rusia</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>SADYRIN Pavel</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>1994</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Suiza</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Roy Hodgson</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>1994</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Tommy Svensson</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>1994</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Milutinovic Bora</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>1998</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Passarella Daniel</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>1998</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Prohaska Herbert</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>1998</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Leekens Georges</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>1998</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Zagallo Mario</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>1998</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Hristo Bonev</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>1998</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Nelson Acosta</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>1998</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Le Roy Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>1998</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Hernán Gómez</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>1998</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Croacia</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>BLAZEVIC Miroslav</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>1998</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Dinamarca</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>JOHANSSON Bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>1998</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Glenn Hoddle</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>1998</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Javier Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>1998</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Aimé Jacquet</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>1998</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Berti Vogts</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>1998</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Irán</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Jalal TALEBI</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>1998</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Cesare MALDINI</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>1998</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>SIMOES Rene</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>1998</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>OKADA Takeshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>1998</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>CHA Bum Kun</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>1998</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Arabia Saudita</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Carlos Alberto PARREIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>1998</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Marruecos</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Henri MICHEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>1998</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Manuel LAPUENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>1998</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>HIDDINK Guus</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>1998</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Milutinovic Bora</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>1998</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Noruega</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Egil OLSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>1998</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>CARPEGIANI</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>1998</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Rumania</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Anghel IORDANESCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>1998</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Sudáfrica</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Philippe TROUSSIER</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>1998</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Craig BROWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>1998</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Túnez</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Henryk KASPERCZAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>1998</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Steve SAMPSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>1998</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Slobodan SANTRAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>2002</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Marcelo BIELSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>2002</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>WASEIGE Robert</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>2002</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>SCOLARI Luiz Felipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>2002</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>MILUTINOVIC Bora</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>2002</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Winni SCHAEFER</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>2002</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Alexandre GUIMARAES</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>2002</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Croacia</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Mirko JOZIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>2002</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Dinamarca</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>OLSEN Morten</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>2002</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Hernán Gómez</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>2002</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Sven-Göran Eriksson</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>2002</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>José Antonio CAMACHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>2002</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Roger LEMERRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>2002</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Rudi VOELLER</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>2002</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Irlanda</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Mick McCarthy</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>2002</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Giovanni TRAPATTONI</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>2002</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>TROUSSIER Philippe</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>2002</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>HIDDINK Guus</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>2002</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Arabia Saudita</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Nasser AL JOHAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>2002</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Javier AGUIRRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>2002</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Onigbinde Adegboye</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>2002</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Cesare MALDINI</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>2002</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Jerzy Engel</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>2002</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Antonio OLIVEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>2002</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Sudáfrica</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Sono Jomo</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>2002</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Rusia</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>ROMANTSEV Oleg</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>2002</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Bruno METSU</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>2002</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Eslovenia</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>KATANEC Srecko</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>2002</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Tommy SÖDERBERG</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>2002</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Túnez</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Souayah Ammar</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>2002</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Túnez</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Souayah Ammar</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>2002</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Turquía</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Şenol GÜNEŞ</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>2002</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Víctor PUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>2002</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Bruce Arena</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>2006</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>José PÉKERMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>2006</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Gonçalves Luis</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>2006</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Guus HIDDINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>2006</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Parreira Carlos Alberto</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>2006</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Alexandre GUIMARÃES</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>2006</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Costa de Marfil</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Henri Michel</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>2006</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Croacia</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Zlatko Kranjčar</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>2006</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>República Checa</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Karel Brückner</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>2006</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Luis SUÁREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>2006</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Sven-Göran Eriksson</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>2006</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Luis ARAGONES</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>2006</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Raymond DOMENECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>2006</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Jürgen Klinsmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>2006</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Irán</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Branko Ivankovic</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>2006</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Ratomir DUJKOVIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>2006</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Marcello LIPPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>2006</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>ZICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>2006</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Dick Advocaat</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>2006</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Arabia Saudita</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Marcos Paquetá</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>2006</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Ricardo LA VOLPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>2006</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Marco van Basten</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>2006</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Pawel JANAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>2006</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Aníbal Ruiz Leites</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>2006</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>PETKOVIC Ilija</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>2006</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Luiz Felipe Scolari</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>2006</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Lars Lagerbäck</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>2006</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Suiza</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>KUHN Koebi</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>2006</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Trinidad y Tobago</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Leo Beenhakker</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>2006</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Otto Pfister</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>2006</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Túnez</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Roger Lemerre</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>2006</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Ucrania</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Oleg BLOKHIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>2006</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Bruce ARENA</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>2010</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Diego Maradona</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>2010</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Argelia</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Rabah Saadane</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>2010</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Dunga</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>2010</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Pim Verbeek</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>2010</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Marcelo Bielsa</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>2010</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Costa de Marfil</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Sven-Göran Eriksson</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>2010</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Paul Le Guen</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>2010</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Dinamarca</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Morten Olsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>2010</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Fabio Capello</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>2010</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Vicente del Bosque</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>2010</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Raymond Domenech</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>2010</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Joachim Löw</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>2010</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Otto Rehhagel</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>2010</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Milovan Rajevac</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>2010</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Otto Rehhagel</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>2010</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Marcello Lippi</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>2010</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Reinaldo Rueda</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>2010</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Okada Takeshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>2010</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Huh Jung-Moo</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>2010</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Javier Aguirre</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>2010</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Bert Van Marwijk</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>2010</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Nueva Zelanda</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Ricki Herbert</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>2010</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Lars Lagerbäck</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>2010</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Gerardo Martino</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>2010</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Carlos Queiroz</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>2010</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Sudáfrica</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Carlos Alberto Parreira</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>2010</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Corea del Norte</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Kim Jong Hun</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>2010</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Radomir Antić</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>2010</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Suiza</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Ottmar Hitzfeld</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>2010</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Eslovenia</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Matjaž Kek</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>2010</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Eslovaquia</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Vladimir Weiss</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>2010</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Óscar Tabárez</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>2010</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Bob Bradley</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>2014</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Alejandro Sabella</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>2014</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Argelia</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Vahid Halilhodžić</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>2014</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Ange Postecoglou</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>2014</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Marc Wilmots</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>2014</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Bosnia y Herzegovina</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Safet Sušić</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>2014</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Luiz Felipe Scolari</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402">
+        <v>2014</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Jorge Sampaoli</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403">
+        <v>2014</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Costa de Marfil</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Sabri Lamouchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404">
+        <v>2014</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Volker Finke</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405">
+        <v>2014</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>José Pékerman</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406">
+        <v>2014</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Croacia</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Niko Kovač</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407">
+        <v>2014</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Jorge Luis Pinto</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408">
+        <v>2014</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Roy Hodgson</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409">
+        <v>2014</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Reinaldo Rueda</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410">
+        <v>2014</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Vicente del Bosque</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411">
+        <v>2014</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Didier Deschamps</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412">
+        <v>2014</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Joachim Löw</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413">
+        <v>2014</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>James Appiah</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>2014</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Fernando Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
+        <v>2014</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Luis Suárez</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416">
+        <v>2014</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Cesare Prandelli</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>2014</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Irán</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Carlos Queiroz</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>2014</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Alberto Zaccheroni</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>2014</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Hong Myung-bo</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420">
+        <v>2014</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Herrera Miguel</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421">
+        <v>2014</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Louis Van Gaal</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>2014</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Paulo Bento</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>2014</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Stephen Keshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>2014</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Suiza</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Ottmar Hitzfeld</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>2014</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Rusia</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Fabio Capello</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
+        <v>2014</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Óscar Tabárez</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427">
+        <v>2014</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Jürgen Klinsmann</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
